--- a/biology/Botanique/Josef_Holub/Josef_Holub.xlsx
+++ b/biology/Botanique/Josef_Holub/Josef_Holub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Ludwig Holub, né le 5 février 1930 à Mladá Boleslav et mort le 23 juillet 1999 dans cette même ville, est un professeur de botanique de nationalité tchécoslovaque qui décrivit de nombreuses nouvelles espèces et organisa la systématique de plusieurs groupes botaniques, surtout de son pays et d'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Holub étudie à l'université Charles de Prague et y enseigne à la chaire de botanique à partir de 1953. Il fonde l'institut de botanique de Tchécoslovaquie pour lequel il travaille de nombreuses années. Il aide également à la fondation du département de biosystématique et de la revue scientifique Folia, publiée par l'institut de géobotanique et de phytotaxonomie.
 Il est nommé en 1991 président de la Société de botanique tchèque qui a repris à partir de 1990 la revue Preslia, après la disparition de la Société de botanique tchécoslovaque. Il participe à de nombreuses expéditions botaniques en Europe centrale et en Europe de l'Est.
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Holub a surtout travaillé sur la nomenclature taxonomique des plantes vasculaires. Il développa la sociologie végétale et la phytoécologie en étudiant particulièrement la flore de Tchécoslovaquie (Tchéquie et Slovaquie actuelles). Il publia en 1967 une Recension des unités de végétation supérieure en Tchécoslovaquie, Rozpr.Čs.Acad. Sci. Praga: 77/3: 1-75. pour l'Académie des sciences de Prague.
 Il fit un travail particulièrement exhaustif sur l'ordre des Lycopodiales, développa une nouvelle classification qui donna lieu à l'ordre des Equisetaceae et étudia les fougères Dryopteris, Lastraea et Thelypteris. Enfin, il se dédia aussi à l'étude des genres Helictotrichon (en), Avenula, Rubus et Crataegus.
